--- a/planning/InTheMix_TwoDaySchedule.xlsx
+++ b/planning/InTheMix_TwoDaySchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luky-my.sharepoint.com/personal/cmri235_uky_edu/Documents/EPSCoR-D3TaLES_TeamPortal/Workforce-Development-Activities/In the Mix Planning/Standard Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{32E96153-9047-4FAB-87E8-0DB38EEAB11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA80806B-9B6B-4134-9140-60C70FDE902D}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{32E96153-9047-4FAB-87E8-0DB38EEAB11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0A10E6A-7CF8-4C20-B319-86F0E28EF90B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A18B91C-D856-45D9-992F-0A707BF65A1F}"/>
+    <workbookView xWindow="490" yWindow="1250" windowWidth="14400" windowHeight="7280" xr2:uid="{7A18B91C-D856-45D9-992F-0A707BF65A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="In the Mix - General" sheetId="3" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>Break/Transition</t>
   </si>
   <si>
-    <t>Machine Learning, Part 1</t>
-  </si>
-  <si>
     <t>Computational, Part 1</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t>Computational, Part 2</t>
-  </si>
-  <si>
-    <t>Machine Learning, Part 2</t>
   </si>
   <si>
     <t>In the Mix - 2 Day Example Schedule</t>
@@ -128,6 +122,12 @@
   </si>
   <si>
     <t>Finish Day</t>
+  </si>
+  <si>
+    <t>Data Science, Part 1</t>
+  </si>
+  <si>
+    <t>Data Science, Part 2</t>
   </si>
 </sst>
 </file>
@@ -403,14 +403,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,6 +426,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067AE7DB-DCF4-4664-938C-6CD782EFB85E}">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -739,11 +743,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="23" x14ac:dyDescent="0.5">
-      <c r="B2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
@@ -752,7 +756,7 @@
     </row>
     <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -776,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -787,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -798,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -809,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -820,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -828,10 +832,10 @@
         <v>0.46875</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -842,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -850,31 +854,31 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="21"/>
+      <c r="C15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="12"/>
@@ -893,7 +897,7 @@
     </row>
     <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.4">
       <c r="B19" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
@@ -914,10 +918,10 @@
         <v>0.375</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -925,10 +929,10 @@
         <v>0.37847222222222227</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -936,10 +940,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -950,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -958,10 +962,10 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -972,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -980,10 +984,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -994,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -1002,10 +1006,10 @@
         <v>0.15625</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
@@ -1013,7 +1017,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="10"/>
     </row>
